--- a/dummy_sampel_full.xlsx
+++ b/dummy_sampel_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ubinan-kediri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CF8EAA-22F1-45B6-955D-4B2BD271976A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4B28CD-130C-4573-87BB-E41E0FB5BC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="1812" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>jenis_sampel</t>
   </si>
@@ -67,18 +67,6 @@
     <t>S2</t>
   </si>
   <si>
-    <t>350601010</t>
-  </si>
-  <si>
-    <t>350601011</t>
-  </si>
-  <si>
-    <t>350602012</t>
-  </si>
-  <si>
-    <t>350602014</t>
-  </si>
-  <si>
     <t>prop</t>
   </si>
   <si>
@@ -251,6 +239,12 @@
   </si>
   <si>
     <t>21020143</t>
+  </si>
+  <si>
+    <t>PADI</t>
+  </si>
+  <si>
+    <t>jenis_tanaman</t>
   </si>
 </sst>
 </file>
@@ -322,9 +316,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,9 +356,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,9 +391,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,9 +443,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -608,453 +636,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1">
+        <v>350601001</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="1">
+        <v>111.93145666667</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>-7.9478016666666997</v>
+      </c>
+      <c r="Z2" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z1" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1">
+        <v>350601011</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" s="1">
+        <v>111.94822833332999</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>-7.9249966666666998</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1">
+        <v>350602001</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="1">
+        <v>111.94103533333001</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>-7.8463238333333001</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="1">
+        <v>350602002</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W2" s="1">
-        <v>111.93145666667</v>
-      </c>
-      <c r="X2" s="1">
-        <v>-7.9478016666666997</v>
-      </c>
-      <c r="Y2" s="1">
+      <c r="X5" s="1">
+        <v>111.95113499999999</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>-7.8271350000000002</v>
+      </c>
+      <c r="Z5" s="1">
         <v>2</v>
       </c>
-      <c r="Z2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" s="1">
-        <v>111.94822833332999</v>
-      </c>
-      <c r="X3" s="1">
-        <v>-7.9249966666666998</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="T4" s="1" t="s">
+      <c r="AA5" t="s">
         <v>67</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W4" s="1">
-        <v>111.94103533333001</v>
-      </c>
-      <c r="X4" s="1">
-        <v>-7.8463238333333001</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="AB5" t="s">
         <v>69</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W5" s="1">
-        <v>111.95113499999999</v>
-      </c>
-      <c r="X5" s="1">
-        <v>-7.8271350000000002</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
